--- a/data/trans_orig/POLIPATOLOGIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55AA807-8155-45E0-9E6F-64ABBDA2C6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CF913C-489E-4431-8B93-5A8230C7B96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83A513D8-8947-424F-8F41-7298F0C175F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC80DAE9-A6CF-4666-A131-617707528C20}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,67%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>9,59%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>85,74%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>15,75%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>84,25%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,1288 +311,1276 @@
     <t>42,0%</t>
   </si>
   <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
   </si>
   <si>
     <t>51,65%</t>
   </si>
   <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>46,93%</t>
   </si>
   <si>
-    <t>43,35%</t>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
   </si>
   <si>
     <t>50,47%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>57,34%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>18,98%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>81,02%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>71,61%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>57,01%</t>
   </si>
   <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>46,68%</t>
   </si>
   <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>51,31%</t>
   </si>
   <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
   </si>
   <si>
     <t>53,32%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
   </si>
   <si>
     <t>44,03%</t>
   </si>
   <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>48,69%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>64,71%</t>
   </si>
   <si>
-    <t>61,35%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>79,82%</t>
   </si>
   <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>38,65%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>52,28%</t>
   </si>
   <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A5AC7-C053-4044-8593-DBCB746DB959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107637AB-9256-4191-BCF1-B7B575710817}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3136,7 +3124,7 @@
         <v>4748</v>
       </c>
       <c r="N23" s="7">
-        <v>4875396</v>
+        <v>4875397</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3187,7 +3175,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3223,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578D88C4-B8EE-4F75-AAF8-8A97448DA8EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF16A9-4266-4B20-978D-ACC88BDBB753}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3535,10 +3523,10 @@
         <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3541,13 @@
         <v>638962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>504</v>
@@ -3568,13 +3556,13 @@
         <v>540305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1124</v>
@@ -3583,13 +3571,13 @@
         <v>1179267</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3645,13 @@
         <v>68516</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>156</v>
@@ -3672,13 +3660,13 @@
         <v>165608</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -3714,7 +3702,7 @@
         <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3723,13 +3711,13 @@
         <v>545242</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -3738,13 +3726,13 @@
         <v>1158588</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3800,13 @@
         <v>100942</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>182</v>
@@ -3827,13 +3815,13 @@
         <v>203991</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -3842,13 +3830,13 @@
         <v>304933</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3851,13 @@
         <v>513675</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -3878,13 +3866,13 @@
         <v>412208</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -3893,13 +3881,13 @@
         <v>925883</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3955,13 @@
         <v>174516</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
@@ -3982,13 +3970,13 @@
         <v>273084</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>413</v>
@@ -3997,13 +3985,13 @@
         <v>447600</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4006,13 @@
         <v>254913</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>155</v>
@@ -4033,13 +4021,13 @@
         <v>174716</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -4048,13 +4036,13 @@
         <v>429629</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4110,13 @@
         <v>427492</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>581</v>
@@ -4137,13 +4125,13 @@
         <v>621620</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>965</v>
@@ -4152,13 +4140,13 @@
         <v>1049113</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4161,13 @@
         <v>132145</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -4188,13 +4176,13 @@
         <v>121355</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>233</v>
@@ -4203,13 +4191,13 @@
         <v>253499</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4265,13 @@
         <v>832854</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>1279</v>
@@ -4292,13 +4280,13 @@
         <v>1376577</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>2040</v>
@@ -4307,13 +4295,13 @@
         <v>2209431</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4316,13 @@
         <v>2593925</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>2019</v>
@@ -4343,13 +4331,13 @@
         <v>2181732</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>4467</v>
@@ -4358,13 +4346,13 @@
         <v>4775657</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B241DF4-0ADB-4AAC-9096-14F367E35626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40BC8DF-8DBE-46B0-B3F0-8A342F53C68B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4459,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4566,13 +4554,13 @@
         <v>15525</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4581,13 +4569,13 @@
         <v>37981</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -4596,13 +4584,13 @@
         <v>53506</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4605,13 @@
         <v>403938</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>366</v>
@@ -4632,13 +4620,13 @@
         <v>357774</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>744</v>
@@ -4647,13 +4635,13 @@
         <v>761712</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4709,13 @@
         <v>35542</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4736,13 +4724,13 @@
         <v>68011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -4751,13 +4739,13 @@
         <v>103554</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4760,13 @@
         <v>554954</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4787,13 +4775,13 @@
         <v>495533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>1045</v>
@@ -4802,13 +4790,13 @@
         <v>1050486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4864,13 @@
         <v>61928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -4891,13 +4879,13 @@
         <v>108539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -4906,13 +4894,13 @@
         <v>170467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4915,13 @@
         <v>607169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>556</v>
@@ -4942,13 +4930,13 @@
         <v>552847</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>1136</v>
@@ -4957,13 +4945,13 @@
         <v>1160016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5019,13 @@
         <v>140725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -5046,13 +5034,13 @@
         <v>206220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>321</v>
@@ -5061,13 +5049,13 @@
         <v>346945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5070,13 @@
         <v>505323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -5097,28 +5085,28 @@
         <v>442857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
       </c>
       <c r="N14" s="7">
-        <v>948180</v>
+        <v>948181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5148,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5186,13 +5174,13 @@
         <v>176302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -5201,13 +5189,13 @@
         <v>270545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>393</v>
@@ -5216,13 +5204,13 @@
         <v>446847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5225,13 @@
         <v>301616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>196</v>
@@ -5252,13 +5240,13 @@
         <v>226304</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
@@ -5267,13 +5255,13 @@
         <v>527920</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5329,13 @@
         <v>379585</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>493</v>
@@ -5356,13 +5344,13 @@
         <v>588485</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>899</v>
@@ -5371,13 +5359,13 @@
         <v>968071</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5380,13 @@
         <v>211743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -5407,13 +5395,13 @@
         <v>189446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>383</v>
@@ -5422,13 +5410,13 @@
         <v>401188</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5484,13 @@
         <v>809608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1137</v>
@@ -5511,13 +5499,13 @@
         <v>1279781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>1934</v>
@@ -5526,13 +5514,13 @@
         <v>2089390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5535,13 @@
         <v>2584742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>2201</v>
@@ -5562,13 +5550,13 @@
         <v>2264761</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>4635</v>
@@ -5577,13 +5565,13 @@
         <v>4849502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA99896-9132-443F-9B72-018E7806185C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F048A89F-FC12-4DE8-8D10-005158E75BC1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5678,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5785,13 +5773,13 @@
         <v>42348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -5800,13 +5788,13 @@
         <v>68787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5815,13 +5803,13 @@
         <v>111135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5824,13 @@
         <v>335331</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>170</v>
@@ -5851,13 +5839,13 @@
         <v>286170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -5866,13 +5854,13 @@
         <v>621501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5928,13 @@
         <v>50449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -5955,13 +5943,13 @@
         <v>125628</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -5970,13 +5958,13 @@
         <v>176077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5979,13 @@
         <v>377947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
@@ -6006,13 +5994,13 @@
         <v>373587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>624</v>
@@ -6021,13 +6009,13 @@
         <v>751534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6083,13 @@
         <v>82051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -6110,13 +6098,13 @@
         <v>161125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>319</v>
@@ -6125,13 +6113,13 @@
         <v>243176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6134,13 @@
         <v>475201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -6161,13 +6149,13 @@
         <v>449322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>1075</v>
@@ -6176,13 +6164,13 @@
         <v>924523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6238,13 @@
         <v>205573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>491</v>
@@ -6265,13 +6253,13 @@
         <v>321246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>690</v>
@@ -6280,13 +6268,13 @@
         <v>526819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6289,13 @@
         <v>518417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H14" s="7">
         <v>650</v>
@@ -6316,28 +6304,28 @@
         <v>426015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M14" s="7">
         <v>1116</v>
       </c>
       <c r="N14" s="7">
-        <v>944433</v>
+        <v>944432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6367,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6405,13 +6393,13 @@
         <v>280154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>564</v>
@@ -6420,13 +6408,13 @@
         <v>334156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>876</v>
@@ -6435,13 +6423,13 @@
         <v>614310</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6444,13 @@
         <v>320003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>438</v>
@@ -6471,13 +6459,13 @@
         <v>262907</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>789</v>
@@ -6486,13 +6474,13 @@
         <v>582910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,16 +6545,16 @@
         <v>681</v>
       </c>
       <c r="D19" s="7">
-        <v>451512</v>
+        <v>451513</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>1339</v>
@@ -6575,13 +6563,13 @@
         <v>819458</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>2020</v>
@@ -6590,13 +6578,13 @@
         <v>1270970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6599,13 @@
         <v>246242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>369</v>
@@ -6626,13 +6614,13 @@
         <v>207179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>716</v>
@@ -6641,13 +6629,13 @@
         <v>453422</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,7 +6647,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6715,13 +6703,13 @@
         <v>1112086</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>2774</v>
@@ -6730,28 +6718,28 @@
         <v>1830400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>4098</v>
       </c>
       <c r="N22" s="7">
-        <v>2942487</v>
+        <v>2942486</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6754,13 @@
         <v>2273142</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>2593</v>
@@ -6781,13 +6769,13 @@
         <v>2005181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>4645</v>
@@ -6796,13 +6784,13 @@
         <v>4278322</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,7 +6832,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/POLIPATOLOGIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CF913C-489E-4431-8B93-5A8230C7B96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E46F2E56-B4A1-4435-81CC-345DFDA37F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC80DAE9-A6CF-4666-A131-617707528C20}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA4F5C9F-3E5D-4477-A20F-82F3D5B2F7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1170 +77,1188 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>88,79%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
     <t>82,83%</t>
   </si>
   <si>
@@ -1280,9 +1298,6 @@
     <t>20,52%</t>
   </si>
   <si>
-    <t>33,5%</t>
-  </si>
-  <si>
     <t>18,98%</t>
   </si>
   <si>
@@ -1304,9 +1319,6 @@
     <t>74,83%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
     <t>79,48%</t>
   </si>
   <si>
@@ -1328,9 +1340,6 @@
     <t>18,17%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
     <t>22,11%</t>
   </si>
   <si>
@@ -1353,9 +1362,6 @@
   </si>
   <si>
     <t>88,17%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
   </si>
   <si>
     <t>70,22%</t>
@@ -1992,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107637AB-9256-4191-BCF1-B7B575710817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9F68A0-D3C6-4DB4-AAE0-F6799B0E26CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3094,7 +3100,7 @@
         <v>2552</v>
       </c>
       <c r="D23" s="7">
-        <v>2628561</v>
+        <v>2628560</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3145,7 +3151,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3211,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF16A9-4266-4B20-978D-ACC88BDBB753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67A01C3-0581-4813-A963-829624E08865}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3648,10 +3654,10 @@
         <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>156</v>
@@ -3660,13 +3666,13 @@
         <v>165608</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -3675,13 +3681,13 @@
         <v>234124</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3702,13 @@
         <v>613347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3711,13 +3717,13 @@
         <v>545242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -3726,13 +3732,13 @@
         <v>1158588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3806,13 @@
         <v>100942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>182</v>
@@ -3815,13 +3821,13 @@
         <v>203991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -3830,13 +3836,13 @@
         <v>304933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3857,13 @@
         <v>513675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -3866,13 +3872,13 @@
         <v>412208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -3881,13 +3887,13 @@
         <v>925883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3961,13 @@
         <v>174516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
@@ -3970,13 +3976,13 @@
         <v>273084</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>413</v>
@@ -3985,13 +3991,13 @@
         <v>447600</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4012,13 @@
         <v>254913</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>155</v>
@@ -4021,13 +4027,13 @@
         <v>174716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -4036,13 +4042,13 @@
         <v>429629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4116,13 @@
         <v>427492</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>581</v>
@@ -4125,13 +4131,13 @@
         <v>621620</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>965</v>
@@ -4140,13 +4146,13 @@
         <v>1049113</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4167,13 @@
         <v>132145</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -4176,13 +4182,13 @@
         <v>121355</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>233</v>
@@ -4191,13 +4197,13 @@
         <v>253499</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4271,13 @@
         <v>832854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1279</v>
@@ -4280,13 +4286,13 @@
         <v>1376577</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>2040</v>
@@ -4295,13 +4301,13 @@
         <v>2209431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4322,13 @@
         <v>2593925</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>2019</v>
@@ -4331,13 +4337,13 @@
         <v>2181732</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>4467</v>
@@ -4346,13 +4352,13 @@
         <v>4775657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40BC8DF-8DBE-46B0-B3F0-8A342F53C68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7EB88A-0AF0-4171-A612-4C14983C0ADB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4560,13 @@
         <v>15525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4569,13 +4575,13 @@
         <v>37981</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -4584,13 +4590,13 @@
         <v>53506</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4611,13 @@
         <v>403938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>366</v>
@@ -4620,13 +4626,13 @@
         <v>357774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>744</v>
@@ -4635,13 +4641,13 @@
         <v>761712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4715,13 @@
         <v>35542</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4724,13 +4730,13 @@
         <v>68011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -4739,13 +4745,13 @@
         <v>103554</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4766,13 @@
         <v>554954</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4775,13 +4781,13 @@
         <v>495533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>1045</v>
@@ -4790,13 +4796,13 @@
         <v>1050486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4870,13 @@
         <v>61928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -4879,13 +4885,13 @@
         <v>108539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -4894,13 +4900,13 @@
         <v>170467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4921,13 @@
         <v>607169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>556</v>
@@ -4930,13 +4936,13 @@
         <v>552847</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>1136</v>
@@ -4945,13 +4951,13 @@
         <v>1160016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5025,13 @@
         <v>140725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -5034,13 +5040,13 @@
         <v>206220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>321</v>
@@ -5049,13 +5055,13 @@
         <v>346945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5076,13 @@
         <v>505323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -5085,28 +5091,28 @@
         <v>442857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
       </c>
       <c r="N14" s="7">
-        <v>948181</v>
+        <v>948180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5154,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5174,13 +5180,13 @@
         <v>176302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -5189,13 +5195,13 @@
         <v>270545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>393</v>
@@ -5204,13 +5210,13 @@
         <v>446847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5231,13 @@
         <v>301616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>196</v>
@@ -5240,13 +5246,13 @@
         <v>226304</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
@@ -5255,13 +5261,13 @@
         <v>527920</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5335,13 @@
         <v>379585</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>493</v>
@@ -5344,13 +5350,13 @@
         <v>588485</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M19" s="7">
         <v>899</v>
@@ -5359,13 +5365,13 @@
         <v>968071</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5386,13 @@
         <v>211743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -5395,13 +5401,13 @@
         <v>189446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>383</v>
@@ -5410,13 +5416,13 @@
         <v>401188</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5490,13 @@
         <v>809608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>1137</v>
@@ -5499,13 +5505,13 @@
         <v>1279781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>1934</v>
@@ -5514,13 +5520,13 @@
         <v>2089390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5541,13 @@
         <v>2584742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H23" s="7">
         <v>2201</v>
@@ -5550,13 +5556,13 @@
         <v>2264761</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M23" s="7">
         <v>4635</v>
@@ -5565,13 +5571,13 @@
         <v>4849502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F048A89F-FC12-4DE8-8D10-005158E75BC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1768E567-CE08-4A6A-B941-EB0E7C9B3FD9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5773,13 +5779,13 @@
         <v>42348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -5788,13 +5794,13 @@
         <v>68787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5803,13 +5809,13 @@
         <v>111135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5830,13 @@
         <v>335331</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>170</v>
@@ -5839,13 +5845,13 @@
         <v>286170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -5854,13 +5860,13 @@
         <v>621501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5934,13 @@
         <v>50449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -5943,13 +5949,13 @@
         <v>125628</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -5958,13 +5964,13 @@
         <v>176077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5985,13 @@
         <v>377947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
@@ -5994,13 +6000,13 @@
         <v>373587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M8" s="7">
         <v>624</v>
@@ -6009,13 +6015,13 @@
         <v>751534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6089,13 @@
         <v>82051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -6098,13 +6104,13 @@
         <v>161125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>319</v>
@@ -6113,13 +6119,13 @@
         <v>243176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6140,13 @@
         <v>475201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -6149,13 +6155,13 @@
         <v>449322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>195</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>1075</v>
@@ -6164,13 +6170,13 @@
         <v>924523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6244,13 @@
         <v>205573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>491</v>
@@ -6253,13 +6259,13 @@
         <v>321246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>690</v>
@@ -6268,13 +6274,13 @@
         <v>526819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6295,13 @@
         <v>518417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>650</v>
@@ -6304,13 +6310,13 @@
         <v>426015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>1116</v>
@@ -6319,13 +6325,13 @@
         <v>944432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6399,13 @@
         <v>280154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>564</v>
@@ -6408,13 +6414,13 @@
         <v>334156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>876</v>
@@ -6423,13 +6429,13 @@
         <v>614310</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6450,13 @@
         <v>320003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>438</v>
@@ -6459,13 +6465,13 @@
         <v>262907</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>789</v>
@@ -6474,13 +6480,13 @@
         <v>582910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6554,13 @@
         <v>451513</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>1339</v>
@@ -6563,13 +6569,13 @@
         <v>819458</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>2020</v>
@@ -6578,13 +6584,13 @@
         <v>1270970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6605,13 @@
         <v>246242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
         <v>369</v>
@@ -6614,13 +6620,13 @@
         <v>207179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>716</v>
@@ -6629,13 +6635,13 @@
         <v>453422</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6709,13 @@
         <v>1112086</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>2774</v>
@@ -6718,13 +6724,13 @@
         <v>1830400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>4098</v>
@@ -6733,13 +6739,13 @@
         <v>2942486</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6760,13 @@
         <v>2273142</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H23" s="7">
         <v>2593</v>
@@ -6769,13 +6775,13 @@
         <v>2005181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M23" s="7">
         <v>4645</v>
@@ -6784,13 +6790,13 @@
         <v>4278322</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/POLIPATOLOGIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E46F2E56-B4A1-4435-81CC-345DFDA37F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF912038-372C-4C86-87B7-8DFBA0744A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA4F5C9F-3E5D-4477-A20F-82F3D5B2F7BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1915872-4107-44F6-9BFC-56BCF932583A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>9,59%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>85,74%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>15,75%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>84,25%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>42,0%</t>
   </si>
   <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>51,65%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
   </si>
   <si>
     <t>46,93%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
   </si>
   <si>
     <t>58,0%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>48,35%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,73 +368,73 @@
     <t>59,47%</t>
   </si>
   <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>40,53%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>26,75%</t>
@@ -443,31 +443,31 @@
     <t>25,72%</t>
   </si>
   <si>
-    <t>27,75%</t>
+    <t>27,96%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>72,25%</t>
+    <t>72,04%</t>
   </si>
   <si>
     <t>74,28%</t>
@@ -482,1111 +482,1117 @@
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>10,84%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>89,16%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>20,25%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
   </si>
   <si>
     <t>54,5%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9F68A0-D3C6-4DB4-AAE0-F6799B0E26CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AC2E1-64D0-44DA-A3B7-0A4755F1790E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3100,7 +3106,7 @@
         <v>2552</v>
       </c>
       <c r="D23" s="7">
-        <v>2628560</v>
+        <v>2628561</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3130,7 +3136,7 @@
         <v>4748</v>
       </c>
       <c r="N23" s="7">
-        <v>4875397</v>
+        <v>4875396</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3151,7 +3157,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3181,7 +3187,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3217,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67A01C3-0581-4813-A963-829624E08865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0660E06B-CC2B-4BBC-BC4E-7F1D3A013594}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3529,10 +3535,10 @@
         <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3553,13 @@
         <v>638962</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>504</v>
@@ -3562,13 +3568,13 @@
         <v>540305</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1124</v>
@@ -3577,13 +3583,13 @@
         <v>1179267</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3657,13 @@
         <v>68516</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>156</v>
@@ -3666,13 +3672,13 @@
         <v>165608</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -3681,13 +3687,13 @@
         <v>234124</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3708,13 @@
         <v>613347</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3717,13 +3723,13 @@
         <v>545242</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -3732,13 +3738,13 @@
         <v>1158588</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3812,13 @@
         <v>100942</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>182</v>
@@ -3821,13 +3827,13 @@
         <v>203991</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -3836,13 +3842,13 @@
         <v>304933</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3863,13 @@
         <v>513675</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -3872,13 +3878,13 @@
         <v>412208</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -3887,13 +3893,13 @@
         <v>925883</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3967,13 @@
         <v>174516</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
@@ -3976,13 +3982,13 @@
         <v>273084</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>413</v>
@@ -3991,13 +3997,13 @@
         <v>447600</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4018,13 @@
         <v>254913</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>155</v>
@@ -4027,13 +4033,13 @@
         <v>174716</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -4042,13 +4048,13 @@
         <v>429629</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4122,13 @@
         <v>427492</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>581</v>
@@ -4131,13 +4137,13 @@
         <v>621620</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>965</v>
@@ -4146,13 +4152,13 @@
         <v>1049113</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4173,13 @@
         <v>132145</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -4182,13 +4188,13 @@
         <v>121355</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>233</v>
@@ -4197,13 +4203,13 @@
         <v>253499</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4277,13 @@
         <v>832854</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1279</v>
@@ -4286,13 +4292,13 @@
         <v>1376577</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>2040</v>
@@ -4301,13 +4307,13 @@
         <v>2209431</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4328,13 @@
         <v>2593925</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>2019</v>
@@ -4337,13 +4343,13 @@
         <v>2181732</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>4467</v>
@@ -4352,13 +4358,13 @@
         <v>4775657</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7EB88A-0AF0-4171-A612-4C14983C0ADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41620528-A4B2-497A-A33A-6D6AC433D412}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4453,7 +4459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,13 +4566,13 @@
         <v>15525</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4575,13 +4581,13 @@
         <v>37981</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -4590,13 +4596,13 @@
         <v>53506</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4617,13 @@
         <v>403938</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>366</v>
@@ -4626,13 +4632,13 @@
         <v>357774</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>744</v>
@@ -4641,13 +4647,13 @@
         <v>761712</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4721,13 @@
         <v>35542</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4730,13 +4736,13 @@
         <v>68011</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -4745,13 +4751,13 @@
         <v>103554</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4772,13 @@
         <v>554954</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4781,13 +4787,13 @@
         <v>495533</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>1045</v>
@@ -4796,13 +4802,13 @@
         <v>1050486</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4876,13 @@
         <v>61928</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -4885,13 +4891,13 @@
         <v>108539</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -4900,13 +4906,13 @@
         <v>170467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4927,13 @@
         <v>607169</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>556</v>
@@ -4936,13 +4942,13 @@
         <v>552847</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>1136</v>
@@ -4951,13 +4957,13 @@
         <v>1160016</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5031,13 @@
         <v>140725</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -5040,13 +5046,13 @@
         <v>206220</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>321</v>
@@ -5055,13 +5061,13 @@
         <v>346945</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5082,13 @@
         <v>505323</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -5091,13 +5097,13 @@
         <v>442857</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -5106,13 +5112,13 @@
         <v>948180</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5186,13 @@
         <v>176302</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -5195,13 +5201,13 @@
         <v>270545</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>393</v>
@@ -5210,13 +5216,13 @@
         <v>446847</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5237,13 @@
         <v>301616</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>196</v>
@@ -5246,13 +5252,13 @@
         <v>226304</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
@@ -5261,13 +5267,13 @@
         <v>527920</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5341,13 @@
         <v>379585</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>493</v>
@@ -5350,13 +5356,13 @@
         <v>588485</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M19" s="7">
         <v>899</v>
@@ -5365,13 +5371,13 @@
         <v>968071</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5392,13 @@
         <v>211743</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -5401,13 +5407,13 @@
         <v>189446</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>383</v>
@@ -5416,13 +5422,13 @@
         <v>401188</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5496,13 @@
         <v>809608</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>1137</v>
@@ -5505,13 +5511,13 @@
         <v>1279781</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>1934</v>
@@ -5520,10 +5526,10 @@
         <v>2089390</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>387</v>
@@ -5544,10 +5550,10 @@
         <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>2201</v>
@@ -5556,13 +5562,13 @@
         <v>2264761</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>4635</v>
@@ -5571,13 +5577,13 @@
         <v>4849502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,7 +5661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1768E567-CE08-4A6A-B941-EB0E7C9B3FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FA3DE7-79ED-410E-B390-E33E57DE9D44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5785,13 @@
         <v>42348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -5794,13 +5800,13 @@
         <v>68787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5809,13 +5815,13 @@
         <v>111135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,10 +5836,10 @@
         <v>335331</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>406</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>407</v>
@@ -5955,7 +5961,7 @@
         <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -5964,13 +5970,13 @@
         <v>176077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5991,13 @@
         <v>377947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
@@ -6000,13 +6006,13 @@
         <v>373587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>624</v>
@@ -6015,13 +6021,13 @@
         <v>751534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6095,13 @@
         <v>82051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -6104,13 +6110,13 @@
         <v>161125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M10" s="7">
         <v>319</v>
@@ -6119,13 +6125,13 @@
         <v>243176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6146,13 @@
         <v>475201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -6155,13 +6161,13 @@
         <v>449322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>444</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>1075</v>
@@ -6170,13 +6176,13 @@
         <v>924523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6250,13 @@
         <v>205573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>491</v>
@@ -6259,13 +6265,13 @@
         <v>321246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>690</v>
@@ -6274,13 +6280,13 @@
         <v>526819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6301,13 @@
         <v>518417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>650</v>
@@ -6310,28 +6316,28 @@
         <v>426015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>1116</v>
       </c>
       <c r="N14" s="7">
-        <v>944432</v>
+        <v>944433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,7 +6379,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6399,13 +6405,13 @@
         <v>280154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>564</v>
@@ -6414,13 +6420,13 @@
         <v>334156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M16" s="7">
         <v>876</v>
@@ -6429,13 +6435,13 @@
         <v>614310</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6456,13 @@
         <v>320003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H17" s="7">
         <v>438</v>
@@ -6465,13 +6471,13 @@
         <v>262907</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M17" s="7">
         <v>789</v>
@@ -6480,13 +6486,13 @@
         <v>582910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,16 +6557,16 @@
         <v>681</v>
       </c>
       <c r="D19" s="7">
-        <v>451513</v>
+        <v>451512</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="H19" s="7">
         <v>1339</v>
@@ -6569,13 +6575,13 @@
         <v>819458</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M19" s="7">
         <v>2020</v>
@@ -6584,13 +6590,13 @@
         <v>1270970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6611,13 @@
         <v>246242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>369</v>
@@ -6620,13 +6626,13 @@
         <v>207179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>716</v>
@@ -6635,13 +6641,13 @@
         <v>453422</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,7 +6659,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6709,13 +6715,13 @@
         <v>1112086</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H22" s="7">
         <v>2774</v>
@@ -6724,28 +6730,28 @@
         <v>1830400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
         <v>4098</v>
       </c>
       <c r="N22" s="7">
-        <v>2942486</v>
+        <v>2942487</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6766,13 @@
         <v>2273142</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H23" s="7">
         <v>2593</v>
@@ -6775,13 +6781,13 @@
         <v>2005181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M23" s="7">
         <v>4645</v>
@@ -6790,13 +6796,13 @@
         <v>4278322</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,7 +6844,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
